--- a/resources/20190404.xlsx
+++ b/resources/20190404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljf/Documents/GitHub/openbiox-wiki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DBA9A7-B242-A445-905E-F6B5FA4AA303}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D7BCE5-72FE-C34E-997A-122F575FCF9F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="460" windowWidth="24320" windowHeight="16940" activeTab="1" xr2:uid="{15E52D71-E579-DA47-8BB2-A4839B67A220}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>时间</t>
   </si>
@@ -40,9 +40,6 @@
     <t>来源/去向</t>
   </si>
   <si>
-    <t>李剑峰</t>
-  </si>
-  <si>
     <t>经手人</t>
   </si>
   <si>
@@ -158,18 +155,6 @@
         <charset val="134"/>
       </rPr>
       <t>使用情况</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李剑峰</t>
     </r>
   </si>
   <si>
@@ -404,20 +389,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>曾海銮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>王义冠</t>
-  </si>
-  <si>
-    <t>王诗翔</t>
-  </si>
-  <si>
     <t>Interactive knowledge-base and cloud application for better interpretation of human disease</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -577,11 +552,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>李剑峰</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
+      <t>暂未投入使用</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>openbiox playcloud</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -590,11 +568,130 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>暂未投入使用</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
+      <t>小队使用中</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnaChat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xenashiny</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookbook4r</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encode Challenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCGA Tool Kit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>playcloud</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> scRNA–seq OnlineFlow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rvisualization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与Encode Imputation Challeng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCGA系列文章中所应用的工具收集、整理和教程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn and practice of cloud servers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单细胞转录组在线分析流程开发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R可视化资料整理、翻译、案例的分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orgs/openbiox/teams/encodechallenge/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orgs/openbiox/teams/playcloud</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/openbiox/ENCODE-Challenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orgs/openbiox/projects/9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数额（元）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dell </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -603,13 +700,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>廖凯</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>openbiox playcloud</t>
+      <t>服务器，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
     </r>
     <r>
       <rPr>
@@ -619,11 +719,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>小队使用中</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
+      <t>单路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -632,532 +738,370 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>陈颖珊</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪晨洋</t>
-  </si>
-  <si>
-    <t>杨洋</t>
-  </si>
-  <si>
-    <t>吴朋</t>
-  </si>
-  <si>
-    <t>熊逸</t>
-  </si>
-  <si>
-    <t>ak47</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dnaChat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xenashiny</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cookbook4r</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encode Challenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCGA Tool Kit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>playcloud</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> scRNA–seq OnlineFlow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rvisualization</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与Encode Imputation Challeng</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCGA系列文章中所应用的工具收集、整理和教程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn and practice of cloud servers</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单细胞转录组在线分析流程开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>R可视化资料整理、翻译、案例的分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程，内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>96Gb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，硬盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">40T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（闲时可供组织项目使用）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>40T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储（剩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>25T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>125GB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程，有公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和域名（新增资源只能作为子目录），只开放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端口，外网下载速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-3MB/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（定向支持精准医学相关项目）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腾讯微云超级会员（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">openbiox </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年3个月</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orgs/openbiox/teams/single-cell-geek</t>
+  </si>
+  <si>
+    <t>https://github.com/openbiox/scRNA-seq-OnlineFlow</t>
+  </si>
+  <si>
+    <t>https://github.com/orgs/openbiox/projects/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成员名单</t>
   </si>
   <si>
     <t>https://github.com/orgs/openbiox/teams/encodechallenge/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/orgs/openbiox/teams/playcloud</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/openbiox/ENCODE-Challenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/orgs/openbiox/projects/9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数额（元）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结余</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线程，内存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>96Gb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，硬盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">40T </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（闲时可供组织项目使用）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>娄佳成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>40T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存储（剩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>25T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），内存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>125GB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线程，有公网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和域名（新增资源只能作为子目录），只开放</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>端口，外网下载速度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2-3MB/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（定向支持精准医学相关项目）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>腾讯微云超级会员（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">openbiox </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>QQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年3个月</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/orgs/openbiox/teams/single-cell-geek</t>
-  </si>
-  <si>
-    <t>https://github.com/openbiox/scRNA-seq-OnlineFlow</t>
-  </si>
-  <si>
-    <t>https://github.com/orgs/openbiox/projects/8</t>
-  </si>
-  <si>
-    <t>李剑峰，曾海銮，赵飞，王诗翔，杨洋，廖凯，贾敏，张超</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 成员名单</t>
-  </si>
-  <si>
-    <t>李剑峰，夏文涛，王金增，李润泽，任怡然，张佩，吴昌鹏</t>
-  </si>
-  <si>
-    <t>王义冠，朱海，阚科佳，王慧美</t>
-  </si>
-  <si>
-    <t>王诗翔，赵飞，熊逸，赵龙飞，李胤，顾恺</t>
-  </si>
-  <si>
-    <t>王诗翔，赵飞，陈颖珊，时伟丽，王慧美，熊逸，杨芮，张子颖</t>
-  </si>
-  <si>
-    <t>洪晨洋，李润泽，王金增，王海濤，沈文龙，杨洋，吴朋，韩漾，王书喆</t>
-  </si>
-  <si>
-    <t>杨洋，郭奕鑫，吴昌鹏，贾敏，杨旺，李先彬，余超然，任怡然，李雪楠</t>
-  </si>
-  <si>
-    <t>李剑峰，曾海銮，王海濤，廖凯，贾敏，陈颖珊，王金增，姜思彤，解琪琪，张娜娜，张楠，王慧美，杨洋，赵清波，熊逸</t>
-  </si>
-  <si>
-    <t>吴朋，郭奕鑫，王金增，魏晨，夏文涛，丁雨，李润泽，王琪，张超，韩漾</t>
-  </si>
-  <si>
-    <t>熊逸，余超然，廖凯，袁也，贾敏，朱海，王海濤，代雨婷，张娜娜，赵清波，郑东旭</t>
-  </si>
-  <si>
-    <t>https://github.com/orgs/openbiox/teams/encodechallenge/</t>
+  </si>
+  <si>
+    <t>**峰</t>
+  </si>
+  <si>
+    <t>**銮</t>
+  </si>
+  <si>
+    <t>**冠</t>
+  </si>
+  <si>
+    <t>**洋</t>
+  </si>
+  <si>
+    <t>*逸</t>
+  </si>
+  <si>
+    <t>**成</t>
+  </si>
+  <si>
+    <t>*凯</t>
+  </si>
+  <si>
+    <t>**珊</t>
+  </si>
+  <si>
+    <t>**峰，**銮，*飞，**翔，*洋，*凯，*敏，*超</t>
+  </si>
+  <si>
+    <t>**峰，**涛，**增，**泽，**然，*佩，**鹏</t>
+  </si>
+  <si>
+    <t>**冠，*海，**佳，**美</t>
+  </si>
+  <si>
+    <t>**翔，*飞，*逸，**飞，*胤，*恺</t>
+  </si>
+  <si>
+    <t>**翔，*飞，**珊，**丽，**美，*逸，*芮，**颖</t>
+  </si>
+  <si>
+    <t>**洋，**泽，**增，**濤，**龙，*洋，*朋，*漾，**喆</t>
+  </si>
+  <si>
+    <t>*洋，**鑫，**鹏，*敏，*旺，**彬，**然，**然，**楠</t>
+  </si>
+  <si>
+    <t>**峰，**銮，**濤，*凯，*敏，**珊，**增，**彤，**琪，**娜，*楠，**美，*洋，**波，*逸</t>
+  </si>
+  <si>
+    <t>*朋，**鑫，**增，*晨，**涛，*雨，**泽，*琪，*超，*漾</t>
+  </si>
+  <si>
+    <t>*逸，**然，*凯，*也，*敏，*海，**濤，**婷，**娜，**波，**旭</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1477,6 +1421,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,8 +1433,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1807,7 +1754,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1820,24 +1767,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
@@ -1847,16 +1794,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1864,13 +1811,13 @@
         <v>43530</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="9">
         <v>5.2</v>
@@ -1884,13 +1831,13 @@
         <v>43530</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>6</v>
       </c>
       <c r="E5" s="9">
         <v>1000</v>
@@ -1905,13 +1852,13 @@
         <v>43531</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="9">
         <v>800</v>
@@ -1926,13 +1873,13 @@
         <v>43531</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="9">
         <v>200</v>
@@ -1947,13 +1894,13 @@
         <v>43531</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="9">
         <v>666</v>
@@ -1968,13 +1915,13 @@
         <v>43531</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9">
         <v>200</v>
@@ -1989,13 +1936,13 @@
         <v>43532</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9">
         <v>199</v>
@@ -2010,13 +1957,13 @@
         <v>43532</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="9">
         <v>300</v>
@@ -2031,13 +1978,13 @@
         <v>43533</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="9">
         <v>500</v>
@@ -2052,13 +1999,13 @@
         <v>43533</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="9">
         <v>5000</v>
@@ -2073,13 +2020,13 @@
         <v>43533</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="9">
         <v>150</v>
@@ -2094,13 +2041,13 @@
         <v>43536</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="9">
         <v>600</v>
@@ -2115,13 +2062,13 @@
         <v>43538</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="9">
         <v>182.34</v>
@@ -2136,13 +2083,13 @@
         <v>43540</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="9">
         <v>990</v>
@@ -2157,13 +2104,13 @@
         <v>43540</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="9">
         <v>100</v>
@@ -2178,13 +2125,13 @@
         <v>43541</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="9">
         <v>693</v>
@@ -2199,13 +2146,13 @@
         <v>43543</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="9">
         <v>8.35</v>
@@ -2220,13 +2167,13 @@
         <v>43553</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" s="9">
         <v>-228</v>
@@ -2241,13 +2188,13 @@
         <v>43555</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="9">
         <v>990</v>
@@ -2262,13 +2209,13 @@
         <v>43559</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E23" s="9">
         <v>-228</v>
@@ -2293,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37132F56-D59F-4D4E-8B5B-72391DD0C10C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2310,45 +2257,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="A1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1">
@@ -2356,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="14">
         <v>43533</v>
@@ -2365,19 +2312,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51">
@@ -2385,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C4" s="18">
         <v>43544</v>
@@ -2394,19 +2341,19 @@
         <v>7</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17">
@@ -2414,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C5" s="18">
         <v>43544</v>
@@ -2423,19 +2370,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51">
@@ -2443,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C6" s="18">
         <v>43544</v>
@@ -2452,19 +2399,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34">
@@ -2472,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C7" s="18">
         <v>43544</v>
@@ -2481,19 +2428,19 @@
         <v>8</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34">
@@ -2501,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C8" s="18">
         <v>43544</v>
@@ -2510,19 +2457,19 @@
         <v>9</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34">
@@ -2530,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18">
         <v>43544</v>
@@ -2539,27 +2486,27 @@
         <v>8</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>113</v>
+        <v>73</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="64">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C10" s="18">
         <v>43548</v>
@@ -2568,27 +2515,27 @@
         <v>15</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="48">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C11" s="18">
         <v>43548</v>
@@ -2597,27 +2544,27 @@
         <v>7</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>100</v>
-      </c>
       <c r="I11" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C12" s="18">
         <v>43548</v>
@@ -2626,17 +2573,17 @@
         <v>11</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="30" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2674,7 +2621,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2686,29 +2633,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20">
-      <c r="A1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
@@ -2718,65 +2665,65 @@
       <c r="B3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
+      <c r="C3" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85">
       <c r="A4" s="14">
         <v>43527</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
+      <c r="B4" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="14">
         <v>43530</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
+      <c r="B5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="A6" s="14">
         <v>43530</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
+      <c r="B6" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17">
@@ -2784,50 +2731,50 @@
         <v>43544</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" s="14">
         <v>43553</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
+      <c r="B8" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17">
       <c r="A9" s="14">
         <v>43553</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
+      <c r="B9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
